--- a/testData/OpenCartTestCases.xlsx
+++ b/testData/OpenCartTestCases.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abgoyal\Downloads\Open-Cart-App-Testing\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EFD90B1-A16C-469F-824F-727BCE14A340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D32697A-9E95-4779-B397-C5013468A57E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="Register" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Login!$A$1:$H$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Register!$A$1:$I$20</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="178">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -443,12 +445,329 @@
   <si>
     <t>Manual</t>
   </si>
+  <si>
+    <t>1.'Register Account' functionality should work in all the supported environments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click on 'My Account' Drop menu
+2. Click on 'Register' option </t>
+  </si>
+  <si>
+    <t>1. Open the Application (https://demo.opencart.com) in any Browser</t>
+  </si>
+  <si>
+    <t>Validate 'Register Account' functionality in all the supported environments</t>
+  </si>
+  <si>
+    <t>(TS_001) 
+Register Functionality</t>
+  </si>
+  <si>
+    <t>TC_RF_027</t>
+  </si>
+  <si>
+    <t>1. Proper and good UI should be displayed on the 'Register Account' page</t>
+  </si>
+  <si>
+    <t>Validate the UI of the 'Register Account' page</t>
+  </si>
+  <si>
+    <t>TC_RF_026</t>
+  </si>
+  <si>
+    <t>Validate the Breadcrumb, Page Heading, Page URL, Page Title of 'Register Account' Page</t>
+  </si>
+  <si>
+    <t>TC_RF_025</t>
+  </si>
+  <si>
+    <t>1. User should be navigated to the respective pages without any problems</t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' Drop menu
+2. Click on 'Register' option 
+3. Try clicking on 'login page' link, 'privacy policy' link, 'Right Column' options, Menu options, Header and Footer options and any other options</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate navigating to other pages using the options or links provided on the 'Register Account' page </t>
+  </si>
+  <si>
+    <t>TC_RF_023</t>
+  </si>
+  <si>
+    <t>1. Warning message - 'Warning: You must agree to the Privacy Policy!' should be displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click on 'My Account' Drop menu
+2. Click on 'Register' option 
+3. Enter new Account Details into all the Fields (First Name, Last Name, E-Mail,Telephone, Password, Password Confirm and Newsletter Fields) 
+4. Don't select the 'Privacy Policy' checkbox option
+4. Click on 'Continue' button (ER-1)
+</t>
+  </si>
+  <si>
+    <t>Validate Registering the Account without selecting the 'Privacy Policy' checkbox option</t>
+  </si>
+  <si>
+    <t>TC_RF_021</t>
+  </si>
+  <si>
+    <t>1. 'Privacy Policy' checkbox option is not selected by default</t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' Drop menu
+2. Click on 'Register' option 
+3. View the 'Privacy Policy' checkbox option (ER-1)</t>
+  </si>
+  <si>
+    <t>Validate whether the 'Privacy Policy' checkbox option is not selected by default</t>
+  </si>
+  <si>
+    <t>TC_RF_020</t>
+  </si>
+  <si>
+    <t>1. The leading and trailing spaces entered into these fields should automatically get trimmed on successful account creation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click on 'My Account' Drop menu
+2. Click on 'Register' option 
+3. Enter new Account Details into all the Fields (First Name, Last Name, E-Mail,Telephone, Password, Password Confirm, Newsletter and  Privacy Policy Fields) - by adding leading and trailing spaces to the applicable fields (First Name, Last Name, E-Mail,Telephone, Password, Password Confirm)
+4. Click on 'Continue' button (ER-1)
+</t>
+  </si>
+  <si>
+    <t>Validate whether the leading and trailing spaces entered into the Register Account fields are trimmed</t>
+  </si>
+  <si>
+    <t>TC_RF_019</t>
+  </si>
+  <si>
+    <t>1. Warning message should be displayed for following Password Complexity Standards</t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' Drop menu
+2. Click on 'Register' option 
+3. Enter new Account Details into all the Fields (First Name, Last Name, E-Mail,Telephone, Newsletter and  Privacy Policy Fields)
+4. Check entering simple passwords (Not following Password Complexity Standars' i.e. Size of password as 8, password should contain atleat one number, symbol, lower case letter and upper case letters) - &lt;Refer Test Data&gt;
+5. Click on 'Continue' button (ER-1)</t>
+  </si>
+  <si>
+    <t>Validate whether the Password fields in the Register Account page are following Password Complexity Standards</t>
+  </si>
+  <si>
+    <t>TC_RF_017</t>
+  </si>
+  <si>
+    <t>1. Warning message should be displayed for these Mandatory fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click on 'My Account' Drop menu
+2. Click on 'Register' option 
+3. Enter spaces into the Mandatory Fields (First Name, Last Name, E-Mail,Telephone, Password and Password Confirm)
+4. Click on 'Continue' button (ER-1)
+</t>
+  </si>
+  <si>
+    <t>Validate whether the Mandatory fields in the Register Account page are accepting only spaces</t>
+  </si>
+  <si>
+    <t>TC_RF_016</t>
+  </si>
+  <si>
+    <t>1. All the specified Fields in the Test Steps should be marked with red color * symbol</t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' Drop menu
+2. Click on 'Register' option 
+3. Check the Fields - First Name, Last Name, E-Mail, Telephone, Password, Password Confirm and Privacy Policy</t>
+  </si>
+  <si>
+    <t>Validate all the mandatory fields in the Register Account page are marked with red color * symbol</t>
+  </si>
+  <si>
+    <t>TC_RF_014</t>
+  </si>
+  <si>
+    <t>1. Proper Placeholder texts should be displayed in these fields</t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' Drop menu
+2. Click on 'Register' option 
+3. View the First Name, Last Name, E-Mail, Telephone, Password, Password Confirm fields for Placeholders (ER-1)</t>
+  </si>
+  <si>
+    <t>Validate all the fields in the Register Account page have the proper placeholders</t>
+  </si>
+  <si>
+    <t>TC_RF_013</t>
+  </si>
+  <si>
+    <t>1. User should be logged in,  taken to 'Account Succcess' page and proper details should be displayed on the page</t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' Drop menu
+2. Click on 'Register' option 
+3. Enter new Account Details into all the Fields (First Name, Last Name, E-Mail,Telephone, Password, Password Confirm, Newsletter and  Privacy Policy Fields) by using Keyboard keys (Tab, Spacebar and Enter)
+4. Click on 'Continue' button (ER-1)</t>
+  </si>
+  <si>
+    <t>Validate Registering an Account by using the Keyboard keys</t>
+  </si>
+  <si>
+    <t>TC_RF_012</t>
+  </si>
+  <si>
+    <t>1. Account should not be created, instead a proper field level warning message or page level warning message to provide valid email address should be displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Try all below invalid email address formats:
+1) pavanol
+2) pavanol@
+3) pavanol@gmail
+</t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' Drop menu
+2. Click on 'Register' option 
+3. Enter new Account Details into all the Fields (First Name, Last Name,Telephone, Password, Password Confirm, Newsletter and  Privacy Policy Fields) 
+4. Enter invalid email address into the E-Mail Field - &lt;Refer Test Data&gt;
+5. Click on 'Continue' button (ER-1)</t>
+  </si>
+  <si>
+    <t>Validate Registering an Account by providing an invalid email address into the E-Mail field</t>
+  </si>
+  <si>
+    <t>TC_RF_010</t>
+  </si>
+  <si>
+    <t>1. Account should not be created again, instead the warning messsage -  'Warning: E-Mail Address is already registered!' should be displayed</t>
+  </si>
+  <si>
+    <t>First Name - Pavan
+Last Name - B
+E-Mail - pavanoltraining@gmail.com
+Telephone - 814240XXXX
+Password - 12345
+Password Confirm - 12345</t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' Drop menu
+2. Click on 'Register' option 
+3. Enter existing Account Details into all the Fields (First Name, Last Name, E-Mail,Telephone, Password, Password Confirm, Newsletter and  Privacy Policy Fields) - &lt;Refer Test Data&gt;
+4. Click on 'Continue' button (ER-1)</t>
+  </si>
+  <si>
+    <t>Validate Registering an Account by providing the existing account details (i.e. existing email address)</t>
+  </si>
+  <si>
+    <t>TC_RF_009</t>
+  </si>
+  <si>
+    <t>1. User should be taken to 'Register Account' page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click on 'My Account' Drop menu
+2. Click on 'Register' option (ER-1) 
+3. Click on 'My Account' Drop menu
+4. Click on 'Login' option 
+5. Click  on 'Continue' button inside 'New Customer' box (ER-1) 
+6. Repeat Steps 3 and 4
+7. Click on 'Register' option from the Right Column options (ER-1) </t>
+  </si>
+  <si>
+    <t>Validate different ways of navigating to 'Register Account' page</t>
+  </si>
+  <si>
+    <t>TC_RF_007</t>
+  </si>
+  <si>
+    <t>1. User should be logged in,  taken to 'Account Succcess' page and proper details should be displayed on the page
+2. User should be taken to 'Account' page 
+3. 'No' option should be displayed as selected by default in the Newsletter page</t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' Drop menu
+2. Click on 'Register' option 
+3. Enter new Account Details into all the Fields (First Name, Last Name, E-Mail,Telephone, Password, Password Confirm and  Privacy Policy Fields)
+4.Click on 'No'  radio option for Newsletter 
+5. Click on 'Continue' button (ER-1)
+6. Click on 'Continue' button that is displayed in the 'Account Success' page (ER-2)
+7. Click on 'Subscribe/unsubscribe to newsletter' option (ER-3)</t>
+  </si>
+  <si>
+    <t>Validate Registering an Account when 'No' option is selected for Newsletter field</t>
+  </si>
+  <si>
+    <t>TC_RF_006</t>
+  </si>
+  <si>
+    <t>1. User should be logged in,  taken to 'Account Succcess' page and proper details should be displayed on the page
+2. User should be taken to 'Account' page 
+3. 'Yes' option should be displayed as selected by default in the Newsletter page</t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' Drop menu
+2. Click on 'Register' option 
+3. Enter new Account Details into all the Fields (First Name, Last Name, E-Mail,Telephone, Password, Password Confirm and  Privacy Policy Fields)
+4.Click on 'Yes' radio option for Newsletter 
+5. Click on 'Continue' button (ER-1)
+6. Click on 'Continue' button that is displayed in the 'Account Success' page (ER-2)
+7. Click on 'Subscribe/unsubscribe to newsletter' option (ER-3)</t>
+  </si>
+  <si>
+    <t>Validate Registering an Account when 'Yes' option is selected for Newsletter field</t>
+  </si>
+  <si>
+    <t>TC_RF_005</t>
+  </si>
+  <si>
+    <t>1. The below warning messages should be displayed for the respective fields:
+For First Name field, the warning message 'First Name must be between 1 and 32 characters!' should be displayed
+For Last Name field, the warning message 'Last Name must be between 1 and 32 characters!' should be displayed
+For E-Mail field, the warning message 'E-Mail Address does not appear to be valid!' should be displayed
+For Telephone field, the warning message 'Telephone must be between 3 and 32 characters!' should be displayed
+For Password field, the warning message 'Password must be between 4 and 20 characters!' should be displayed
+For Privacy Policy field, the warning message 'Warning: You must agree to the Privacy Policy!' should be displayed on the top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click on 'My Account' Drop menu
+2. Click on 'Register' option 
+3. Don't enter anything into the fields
+4. Click on 'Continue' button (ER-1)
+</t>
+  </si>
+  <si>
+    <t>Validate proper notification messages are displayed for the mandatory fields, when you don't provide any fields in the 'Register Account' page and submit</t>
+  </si>
+  <si>
+    <t>TC_RF_004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. User should be logged in,  taken to 'Account Succcess' page and proper details should be displayed on the page
+2. User should be taken to 'Account' page </t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' Drop menu
+2. Click on 'Register' option 
+3. Enter new Account Details into all the Fields (First Name, Last Name, E-Mail,Telephone, Password, Password Confirm, Newsletter and  Privacy Policy Fields)
+4. Click on 'Continue' button (ER-1)
+5. Click on 'Continue' button that is displayed in the 'Account Success' page (ER-2)</t>
+  </si>
+  <si>
+    <t>Validate Registering an Account by providing all the fields</t>
+  </si>
+  <si>
+    <t>TC_RF_003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -475,8 +794,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -489,8 +814,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -526,11 +857,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -546,6 +892,27 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -830,8 +1197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1404,4 +1771,596 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE1D9543-8464-4E0F-BC28-34902DCECC11}">
+  <dimension ref="A1:I42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.77734375" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.6640625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="60.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="68.6640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="37.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="78.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="13" customFormat="1" ht="156.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="I2" s="12"/>
+    </row>
+    <row r="3" spans="1:9" s="13" customFormat="1" ht="313.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="I3" s="12"/>
+    </row>
+    <row r="4" spans="1:9" s="13" customFormat="1" ht="208.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="I4" s="12"/>
+    </row>
+    <row r="5" spans="1:9" s="13" customFormat="1" ht="208.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="I5" s="12"/>
+    </row>
+    <row r="6" spans="1:9" s="13" customFormat="1" ht="156.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="1:9" s="13" customFormat="1" ht="121.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="I7" s="12"/>
+    </row>
+    <row r="8" spans="1:9" s="13" customFormat="1" ht="156.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="I8" s="12"/>
+    </row>
+    <row r="9" spans="1:9" s="13" customFormat="1" ht="139.19999999999999" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="I9" s="12"/>
+    </row>
+    <row r="10" spans="1:9" s="13" customFormat="1" ht="87" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="I10" s="12"/>
+    </row>
+    <row r="11" spans="1:9" s="13" customFormat="1" ht="87" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="I11" s="12"/>
+    </row>
+    <row r="12" spans="1:9" s="13" customFormat="1" ht="121.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="I12" s="12"/>
+    </row>
+    <row r="13" spans="1:9" s="13" customFormat="1" ht="191.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="F13" s="10">
+        <v>12345</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="I13" s="12"/>
+    </row>
+    <row r="14" spans="1:9" s="13" customFormat="1" ht="191.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="I14" s="12"/>
+    </row>
+    <row r="15" spans="1:9" s="13" customFormat="1" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="I15" s="12"/>
+    </row>
+    <row r="16" spans="1:9" s="13" customFormat="1" ht="156.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="I16" s="12"/>
+    </row>
+    <row r="17" spans="1:9" s="13" customFormat="1" ht="87" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="I17" s="12"/>
+    </row>
+    <row r="18" spans="1:9" s="13" customFormat="1" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="I18" s="12"/>
+    </row>
+    <row r="19" spans="1:9" s="13" customFormat="1" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="I19" s="12"/>
+    </row>
+    <row r="20" spans="1:9" s="13" customFormat="1" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="I20" s="12"/>
+    </row>
+    <row r="21" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="33" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="34" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="35" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="36" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="37" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="38" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="39" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="40" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="41" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="42" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/testData/OpenCartTestCases.xlsx
+++ b/testData/OpenCartTestCases.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abgoyal\Downloads\Open-Cart-App-Testing\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D32697A-9E95-4779-B397-C5013468A57E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4347F3-049D-400E-B871-7306816CC8BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="Register" sheetId="2" r:id="rId2"/>
+    <sheet name="Logout" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Login!$A$1:$H$16</definedName>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="224">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -762,12 +763,174 @@
   <si>
     <t xml:space="preserve">Test Scenario </t>
   </si>
+  <si>
+    <t>1. Proper UI adhering to the UI checklist should be displayed for Logout option (My Account DropMenu and Right Column) and 'Account Logout' page</t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' Dropmenu 
+2. Select 'Logout' option (Verify ER-1)</t>
+  </si>
+  <si>
+    <t>1. Open the Application URL
+2. User is logged in</t>
+  </si>
+  <si>
+    <t>Validate the UI of the Logout option and the 'Account Logout' page</t>
+  </si>
+  <si>
+    <t>(TS_003)
+Logout Functionality</t>
+  </si>
+  <si>
+    <t>TC_LG_010</t>
+  </si>
+  <si>
+    <t>1. Proper Page Heading, Page Title, Page URL and Breadcrumb are displayed for 'Account Logout' page</t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' Dropmenu 
+2. Select 'Logout' option
+3. Check the Page Heading, Page Title, Page URL and Breadcrumb of the displayed 'Account Logout' page (Verify ER-1)</t>
+  </si>
+  <si>
+    <t>Validate 'Account Logout' page</t>
+  </si>
+  <si>
+    <t>TC_LG_009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Same Account or Differnet Account should get loggedin </t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' Dropmenu 
+2. Select 'Logout' option
+3. Login immediately again with same or different account (Verify ER-1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open the Application URL
+2. User is logged in
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate logging out and loggin in immediately after logout </t>
+  </si>
+  <si>
+    <t>TC_LG_008</t>
+  </si>
+  <si>
+    <t>1. User be logged out in Mobile device too, instead of getting navigated to the Address book page</t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' Dropmenu in Firefox Browser
+2. Select 'Logout' option
+3. Perform any operation which requires the user to log, say navigating to Address Book page in the Chrome Browser of Mobile device (Verify ER-1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open the Application URL
+2. User is logged in Firefox Browser of your laptop
+3. User is logged in with the same acccount of step2 in Chrome browser of your Mobile device
+</t>
+  </si>
+  <si>
+    <t>Validate logout from an Account from a single place after logging into it from different places</t>
+  </si>
+  <si>
+    <t>TC_LG_007</t>
+  </si>
+  <si>
+    <t>1. Logout option should not be displayed in the 'Right Column'</t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' Dropmenu 
+2. Select 'Regiser' option (Verify ER-1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open the Application </t>
+  </si>
+  <si>
+    <t>Validate Logout option is not displayed under 'Right Column' options before logging in</t>
+  </si>
+  <si>
+    <t>TC_LG_006</t>
+  </si>
+  <si>
+    <t>1. Logout option should not be displayed under 'My Account' dropmenu</t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' Dropmenu  (Verify ER-1)</t>
+  </si>
+  <si>
+    <t>1. Open the Application URL</t>
+  </si>
+  <si>
+    <t>Validate Logout option is not displayed under 'My Account' menu before logging in</t>
+  </si>
+  <si>
+    <t>TC_LG_005</t>
+  </si>
+  <si>
+    <t>1. User should not get logged in</t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' Dropmenu 
+2. Select 'Logout' option
+3. Click on Browser back button (Verify ER-1)</t>
+  </si>
+  <si>
+    <t>Validate logging out and browsing back</t>
+  </si>
+  <si>
+    <t>TC_LG_004</t>
+  </si>
+  <si>
+    <t>1. Application should not get logged out, instead the user loggedin session need to be mainitained</t>
+  </si>
+  <si>
+    <t>1. Close the Browser without Logging out
+2. Open the Browser and navigate the application (Verify ER-1)</t>
+  </si>
+  <si>
+    <t>Validate the Application session status, after logging and closing the Browser without logging out</t>
+  </si>
+  <si>
+    <t>TC_LG_003</t>
+  </si>
+  <si>
+    <t>1. User should be taken to the 'Account Logout' page and User should see Login option inplace of Logout under the 'My Account' dropmenu
+2. User should be taken to the Home page</t>
+  </si>
+  <si>
+    <t>1. Click on 'Logout' option from the Right Column  (Verify ER-1)
+2. Click on 'Continue' button (Verify ER-2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open the Application URL
+2. User is logged in and is on 'Account' page
+</t>
+  </si>
+  <si>
+    <t>Validate Logging out by selecting Logout option from 'Right Column' options</t>
+  </si>
+  <si>
+    <t>TC_LG_002</t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' Dropmenu 
+2. Select 'Logout' option (Verify ER-1)
+3. Click on 'Continue' button (Verify ER-2)</t>
+  </si>
+  <si>
+    <t>Validate Logging out by selecting Logout option from 'My Account' dropmenu</t>
+  </si>
+  <si>
+    <t>TC_LG_001</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -797,6 +960,13 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
       <name val="Verdana"/>
       <family val="2"/>
     </font>
@@ -876,7 +1046,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -914,6 +1084,19 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1777,7 +1960,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE1D9543-8464-4E0F-BC28-34902DCECC11}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E17" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="E17" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -2363,4 +2546,329 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39281F2E-46DF-4CF5-BA55-C9B1022784CD}">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.109375" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="28.88671875" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" customWidth="1"/>
+    <col min="5" max="5" width="49" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="109.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="I2" s="18"/>
+    </row>
+    <row r="3" spans="1:9" ht="63" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="I3" s="16"/>
+    </row>
+    <row r="4" spans="1:9" ht="50.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="I4" s="16"/>
+    </row>
+    <row r="5" spans="1:9" ht="37.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="I5" s="16"/>
+    </row>
+    <row r="6" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="I6" s="16"/>
+    </row>
+    <row r="7" spans="1:9" ht="50.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="I7" s="16"/>
+    </row>
+    <row r="8" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="I8" s="16"/>
+    </row>
+    <row r="9" spans="1:9" ht="50.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="I9" s="16"/>
+    </row>
+    <row r="10" spans="1:9" ht="63" x14ac:dyDescent="0.3">
+      <c r="A10" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="I10" s="16"/>
+    </row>
+    <row r="11" spans="1:9" ht="50.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="I11" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/testData/OpenCartTestCases.xlsx
+++ b/testData/OpenCartTestCases.xlsx
@@ -8,18 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abgoyal\Downloads\Open-Cart-App-Testing\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4347F3-049D-400E-B871-7306816CC8BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1C5D35-07B7-428F-8BB8-4E1B6A75C3DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="Register" sheetId="2" r:id="rId2"/>
     <sheet name="Logout" sheetId="3" r:id="rId3"/>
+    <sheet name="Search" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Login!$A$1:$H$16</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Register!$A$1:$I$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Search!$A$1:$I$24</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="319">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -924,6 +926,354 @@
   </si>
   <si>
     <t>TC_LG_001</t>
+  </si>
+  <si>
+    <t>1. Search functionality should work correctly in all the supported environments</t>
+  </si>
+  <si>
+    <t>1. Enter any existing product name into the 'Search' text box field - &lt;Refer Test Data&gt;
+2. Click on the button having search icon (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>1. Open the Application URL in any supported browser</t>
+  </si>
+  <si>
+    <t>Validate the Search functionality in all the supported environments</t>
+  </si>
+  <si>
+    <t>(TS_005)
+Search Functionality</t>
+  </si>
+  <si>
+    <t>TC_SF_022</t>
+  </si>
+  <si>
+    <t>1. Proper UI adhering to the UI checklist should be displayed for the complete Search functionality</t>
+  </si>
+  <si>
+    <t>Validate the UI of Search functionality and Search page options</t>
+  </si>
+  <si>
+    <t>TC_SF_021</t>
+  </si>
+  <si>
+    <t>1. A proper Page Heading, Page URL and Page Title should be displayed for 'Search' page</t>
+  </si>
+  <si>
+    <t>1. Enter any existing product name into the 'Search' text box field - &lt;Refer Test Data&gt;
+2. Click on the button having search icon 
+3. Check the Page Heading, Page URL and Page Title of the 'Search' page</t>
+  </si>
+  <si>
+    <t>Validate Page Heading, Page URL and Page Title of the 'Search' page</t>
+  </si>
+  <si>
+    <t>TC_SF_020</t>
+  </si>
+  <si>
+    <t>1. User should be able to perform Search operation and select several options in the Search page using the Keyboard keys Tab and Enter</t>
+  </si>
+  <si>
+    <t>1. Press Tab and Enter keys to perform Search operation and select several options in the Search page (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>Validate we can use all the options of Search functionality using the Keybaord keys</t>
+  </si>
+  <si>
+    <t>TC_SF_019</t>
+  </si>
+  <si>
+    <t>1. Breakcrumb option should be working correctly</t>
+  </si>
+  <si>
+    <t>Product Name: iMac</t>
+  </si>
+  <si>
+    <t>1. Enter any existing product name into the 'Search' text box field - &lt;Refer Test Data&gt;
+2. Click on the button having search icon 
+3. Check whether the Breadcrumb option</t>
+  </si>
+  <si>
+    <t>Validate Breadcrumb of the 'Search' page</t>
+  </si>
+  <si>
+    <t>TC_SF_018</t>
+  </si>
+  <si>
+    <t>1. User should be navigated to 'Search' page</t>
+  </si>
+  <si>
+    <t>1. Click on 'Site Map' link in the footer options
+2. Click on the 'Search' link from the 'Site Map' page (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>Validate navigating to Search page from the Site Map page</t>
+  </si>
+  <si>
+    <t>TC_SF_017</t>
+  </si>
+  <si>
+    <t>1. Search box field and the button with 'Search' icon should be displayed on all the page of the Application</t>
+  </si>
+  <si>
+    <t>1. Navigate to all the pages of the Application (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>Validate 'Search' textbox field and the button having search icon are displayed on all the page of the Application</t>
+  </si>
+  <si>
+    <t>TC_SF_016</t>
+  </si>
+  <si>
+    <t>1. More than one product should be displayed in the search results page
+2. The selected number of products should be displayed in the current search page</t>
+  </si>
+  <si>
+    <t>Product Name: Mac</t>
+  </si>
+  <si>
+    <t>1. Enter the search criteria in the 'Search' text box field which can result in mutliple products - &lt;Refer Test Data&gt;
+2. Click on the button having search icon (Validate ER-1)
+3. Select the number of Products to be displayed from the 'Show' dropdown (Validate ER-2)</t>
+  </si>
+  <si>
+    <t>Validate the User can select how many produts can be displayed in the Search Results</t>
+  </si>
+  <si>
+    <t>TC_SF_015</t>
+  </si>
+  <si>
+    <t>1. More than one product should be displayed in the search results page
+2. Products are sorted according to the options selected in the 'Sort By' dropdown field</t>
+  </si>
+  <si>
+    <t>1. Enter the search criteria in the 'Search' text box field which can result in mutliple products - &lt;Refer Test Data&gt;
+2. Click on the button having search icon (Validate ER-1)
+3. Select serveral options from the 'Sort By' dropdown (Validate ER-2)</t>
+  </si>
+  <si>
+    <t>Validate User is able to sort the Products displayed in the Search Results</t>
+  </si>
+  <si>
+    <t>TC_SF_014</t>
+  </si>
+  <si>
+    <t>1. User should be navigated to the Product Compare Page</t>
+  </si>
+  <si>
+    <t>1. Enter any existing product name into the 'Search' text box field - &lt;Refer Test Data&gt;
+2. Click on the button having search icon
+3. Click on the 'Product Compare' link (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>Validate navigating to Product Compare Page from Search Results page</t>
+  </si>
+  <si>
+    <t>TC_SF_013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. More than one products should be displayed in the search results page
+2. Multiple product should be dislayed in the List view without any problems and all the options (Add to Cart, Wish List and Compare Product) are working. Also User should be able to navigate to Product Displaye Page of products by clicking on Images and Product Name. 
+3. Multiple product should be dislayed in the Grid view without any problems and all the options (Add to Cart, Wish List and Compare Product) are working. Also User should be able to navigate to Product Displaye Page of products by clicking on Images and Product Name. 
+</t>
+  </si>
+  <si>
+    <t>Search Criteria: Mac</t>
+  </si>
+  <si>
+    <t>1. Enter the search criteria in the 'Search' text box field which can result in mutliple products - &lt;Refer Test Data&gt;
+2. Click on the button having search icon (Validate ER-1)
+3. Select 'List' option  (Validate ER-2)
+4. Select 'Grid' option (Validate ER-3)</t>
+  </si>
+  <si>
+    <t>Validate List and Grid views when  multiple Products are displayed in the search results</t>
+  </si>
+  <si>
+    <t>TC_SF_012</t>
+  </si>
+  <si>
+    <t>1. Single product should be dislayed in the List view without any problems and all the options (Add to Cart, Wish List and Compare Product) are working 
+2. User should be navigated to the Product Display Page of the product
+3. Single product should be dislayed in the Grid view without any problems and all the options (Add to Cart, Wish List and Compare Product) are working 
+4. User should be navigated to the Product Display Page of the product</t>
+  </si>
+  <si>
+    <t>1. Enter any existing product name into the 'Search' text box field - &lt;Refer Test Data&gt;
+2. Click on the button having search icon 
+3. Select 'List' option  (Validate ER-1)
+4. Click on the Image of the Product and name of the product (Validate ER-2)
+5. Repeat Steps 1 to 2 and Select 'Grid' option (Validate ER-3)
+6. Click on the Image of the Product and name of the product (Validate ER-4)</t>
+  </si>
+  <si>
+    <t>Validate List and Grid views when only one Product is displayed in the search results</t>
+  </si>
+  <si>
+    <t>TC_SF_011</t>
+  </si>
+  <si>
+    <t>1. 'There is no product that matches the search criteria' should be displayed in the Search Results page
+2. Searched product should be displayed in the search results</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Name: iMac
+Parent Category Name: Desktops
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Don't enter anything into the 'Search' text box field 
+2. Click on the button having search icon 
+3. Enter any Product Name into the 'Search Criteria' text box field - &lt;Refer Test Data&gt;
+4. Select the Parent category of the given Product Name into 'Category' dropdown field - &lt;Refer Test Data&gt;
+5. Click on 'Search' button (Validate ER-1)
+6. Select 'Search in subcategories' checkbox field
+7. Click on 'Search' button (Validate ER-2)
+</t>
+  </si>
+  <si>
+    <t>Validate Search by selecting  to search in subcategories</t>
+  </si>
+  <si>
+    <t>TC_SF_010</t>
+  </si>
+  <si>
+    <t>There is no product that matches the search criteria' should be displayed in the Search Results page</t>
+  </si>
+  <si>
+    <t>Product Name: iMac
+Wrong Category Name: PC</t>
+  </si>
+  <si>
+    <t>1. Don't enter anything into the 'Search' text box field 
+2. Click on the button having search icon 
+3. Enter any Product Name into the 'Search Criteria' text box field - &lt;Refer Test Data&gt;
+4. Select a wrong category in tthe 'Category' dropdown field - - &lt;Refer Test Data&gt;
+5. Click on 'Search' button (Validate ER-2)</t>
+  </si>
+  <si>
+    <t>Validate Search by selecting the category of product</t>
+  </si>
+  <si>
+    <t>TC_SF_009</t>
+  </si>
+  <si>
+    <t>Product should be successfully displayed in the search results.</t>
+  </si>
+  <si>
+    <t>Product Name: iMac
+Correct Category Name: Mac</t>
+  </si>
+  <si>
+    <t>1. Don't enter anything into the 'Search' text box field 
+2. Click on the button having search icon 
+3. Enter any Product Name into the 'Search Criteria' text box field - &lt;Refer Test Data&gt;
+4. Select the correct category of the given Product Name into 'Category' dropdown field - &lt;Refer Test Data&gt;
+5. Click on 'Search' button (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>1. Product having the given text in its description should be displayed in the search results</t>
+  </si>
+  <si>
+    <t>Text in Production description of iMac Product:  iLife</t>
+  </si>
+  <si>
+    <t>1. Don't enter anything into the 'Search' text box field 
+2. Click on the button having search icon 
+3. Enter any text from the Product Description into the 'Search Criteria' text box field - &lt;Refer Test Data&gt;
+4. Select 'Search in product descriptions' checkbox option
+5. Click on 'Search' button (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>Validate Search using the text from the product description</t>
+  </si>
+  <si>
+    <t>TC_SF_008</t>
+  </si>
+  <si>
+    <t>1. Searched product should be displayed in the search results</t>
+  </si>
+  <si>
+    <t>1. Don't enter anything into the 'Search' text box field 
+2. Click on the button having search icon 
+3. Enter any existing product name into the 'Search Criteria' text box field - &lt;Refer Test Data&gt;
+4. Click on 'Search' button (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>Validate searching using 'Search Criteria' field</t>
+  </si>
+  <si>
+    <t>TC_SF_007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Proper placeholder text is displayed in the below fields:
+- Search text box field
+- Search Criteria text box field
+</t>
+  </si>
+  <si>
+    <t>1. Don't enter anything into the 'Search' text box field 
+2. Click on the button having search icon (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>Validate all the fields in the Search functionality and Search page have placeholders</t>
+  </si>
+  <si>
+    <t>TC_SF_006</t>
+  </si>
+  <si>
+    <t>1. More than one products should be displayed in the search results page</t>
+  </si>
+  <si>
+    <t>1. Enter the search criteria in the 'Search' text box field which can result in mutliple products - &lt;Refer Test Data&gt;
+2. Click on the button having search icon (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>Validate searching by providing a search criteria which results in mulitple products</t>
+  </si>
+  <si>
+    <t>TC_SF_005</t>
+  </si>
+  <si>
+    <t>1. Open the Application URL in any supported browser
+2. Login to the Application</t>
+  </si>
+  <si>
+    <t>Validate searching for a product after login to the Application</t>
+  </si>
+  <si>
+    <t>TC_SF_004</t>
+  </si>
+  <si>
+    <t>1.'There is no product that matches the search criteria' should be displayed in the Search Results page</t>
+  </si>
+  <si>
+    <t>Validate searching without providing any Product Name</t>
+  </si>
+  <si>
+    <t>TC_SF_003</t>
+  </si>
+  <si>
+    <t>1. 'There is no product that matches the search criteria' should be displayed in the Search Results page</t>
+  </si>
+  <si>
+    <t>Product Name: Fitbit</t>
+  </si>
+  <si>
+    <t>1. Enter non existing product name into the 'Search' text box field - &lt;Refer Test Data&gt;
+2. Click on the button having search icon (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>Validate searching with a non existing Product Name</t>
+  </si>
+  <si>
+    <t>TC_SF_002</t>
+  </si>
+  <si>
+    <t>Validate searching with an existing Product Name</t>
+  </si>
+  <si>
+    <t>TC_SF_001</t>
   </si>
 </sst>
 </file>
@@ -1380,8 +1730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1960,8 +2310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE1D9543-8464-4E0F-BC28-34902DCECC11}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView topLeftCell="E17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="E14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -2552,8 +2902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39281F2E-46DF-4CF5-BA55-C9B1022784CD}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView topLeftCell="E5" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2871,4 +3221,680 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{950A7B87-2D5F-4CC5-B12F-3D902C025A90}">
+  <dimension ref="A1:I24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E15" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17:H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="28.88671875" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" customWidth="1"/>
+    <col min="5" max="5" width="56.33203125" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" customWidth="1"/>
+    <col min="8" max="8" width="29.44140625" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="50.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="I2" s="18"/>
+    </row>
+    <row r="3" spans="1:9" ht="50.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="I3" s="16"/>
+    </row>
+    <row r="4" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="I4" s="16"/>
+    </row>
+    <row r="5" spans="1:9" ht="50.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="I5" s="16"/>
+    </row>
+    <row r="6" spans="1:9" ht="63" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="I6" s="16"/>
+    </row>
+    <row r="7" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="I7" s="16"/>
+    </row>
+    <row r="8" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="I8" s="16"/>
+    </row>
+    <row r="9" spans="1:9" ht="108" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="I9" s="16"/>
+    </row>
+    <row r="10" spans="1:9" ht="172.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="I10" s="16"/>
+    </row>
+    <row r="11" spans="1:9" ht="172.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="I11" s="16"/>
+    </row>
+    <row r="12" spans="1:9" ht="126" x14ac:dyDescent="0.3">
+      <c r="A12" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="I12" s="16"/>
+    </row>
+    <row r="13" spans="1:9" ht="151.19999999999999" x14ac:dyDescent="0.3">
+      <c r="A13" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="I13" s="16"/>
+    </row>
+    <row r="14" spans="1:9" ht="214.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="I14" s="16"/>
+    </row>
+    <row r="15" spans="1:9" ht="50.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="I15" s="16"/>
+    </row>
+    <row r="16" spans="1:9" ht="95.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="I16" s="16"/>
+    </row>
+    <row r="17" spans="1:9" ht="88.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="I17" s="16"/>
+    </row>
+    <row r="18" spans="1:9" ht="63" x14ac:dyDescent="0.3">
+      <c r="A18" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="I18" s="16"/>
+    </row>
+    <row r="19" spans="1:9" ht="37.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A19" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="I19" s="16"/>
+    </row>
+    <row r="20" spans="1:9" ht="50.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="I20" s="16"/>
+    </row>
+    <row r="21" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="I21" s="16"/>
+    </row>
+    <row r="22" spans="1:9" ht="63" x14ac:dyDescent="0.3">
+      <c r="A22" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="I22" s="16"/>
+    </row>
+    <row r="23" spans="1:9" ht="50.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="I23" s="16"/>
+    </row>
+    <row r="24" spans="1:9" ht="50.4" x14ac:dyDescent="0.3">
+      <c r="A24" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="I24" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/testData/OpenCartTestCases.xlsx
+++ b/testData/OpenCartTestCases.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abgoyal\Downloads\Open-Cart-App-Testing\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1C5D35-07B7-428F-8BB8-4E1B6A75C3DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8658A0B-EA5A-4924-9C67-9D8FF29B3484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="Register" sheetId="2" r:id="rId2"/>
     <sheet name="Logout" sheetId="3" r:id="rId3"/>
     <sheet name="Search" sheetId="4" r:id="rId4"/>
+    <sheet name="Product Display Page" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Login!$A$1:$H$16</definedName>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="479">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -1274,6 +1275,634 @@
   </si>
   <si>
     <t>TC_SF_001</t>
+  </si>
+  <si>
+    <t>1. 'Product  Display' page functionality should work correctly in all the supported environments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Name: iMac
+</t>
+  </si>
+  <si>
+    <t>1. Enter any existing Product name into the Search text box field - &lt;Refer Test Data&gt;
+2. Click on the button having search icon
+3. Click on the Product displayed in the Search results (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>Validate the 'Product Display' page functionality in all the supported environments</t>
+  </si>
+  <si>
+    <t>(TS_007)
+Product Display Page</t>
+  </si>
+  <si>
+    <t>TC_PDP_037</t>
+  </si>
+  <si>
+    <t>1. Proper UI adhering to the UI checklist should be displayed for the complete 'Product Display' page functionality</t>
+  </si>
+  <si>
+    <t>Validate the UI of 'Product Display' page</t>
+  </si>
+  <si>
+    <t>TC_PDP_036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Proper Page Title, Page Heading and Page URL of the 'Product Display' page are displayed. </t>
+  </si>
+  <si>
+    <t>1. Enter any existing Product name into the Search text box field  - &lt;Refer Test Data&gt;
+2. Click on the button having search icon
+3. Click on the Product displayed in the Search results
+4. Check the Page Title, Page Heading and Page URL of hte displayed 'Product Display' page (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>Validate Page Title, Page Heading and Page URL of the 'Product Display' page</t>
+  </si>
+  <si>
+    <t>TC_PDP_035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. User should be able to select all the available options </t>
+  </si>
+  <si>
+    <t>Product Name: Apple Cinema 30"</t>
+  </si>
+  <si>
+    <t>1. Enter any existing Product name into the Search text box field  - &lt;Refer Test Data&gt;
+2. Click on the button having search icon
+3. Click on the Product displayed in the Search results
+4. Check all the 'Available Options'  in the displayed 'Product Display' page (Validate ER-1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open the Application URL and Login
+</t>
+  </si>
+  <si>
+    <t>Validate all the extra available options in the Product Display page</t>
+  </si>
+  <si>
+    <t>TC_PDP_034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Prices when purchased in bluk should be displayed correctly for 10 products, 20 products and 30 products </t>
+  </si>
+  <si>
+    <t>1. Enter any existing Product name into the Search text box field  - &lt;Refer Test Data&gt;
+2. Click on the button having search icon
+3. Click on the Product displayed in the Search results
+4. Check the prices of the Product when purchased in bluk in the displayed 'Product Display' page (Validate ER-1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate the prices of the Product when purchased in bulk </t>
+  </si>
+  <si>
+    <t>TC_PDP_033</t>
+  </si>
+  <si>
+    <t>1. Orignal price should be displayed as striked off</t>
+  </si>
+  <si>
+    <t>1. Enter any existing Product name into the Search text box field  - &lt;Refer Test Data&gt;
+2. Click on the button having search icon
+3. Click on the Product displayed in the Search results
+4. Check the original price of the Product without offer in the displayed 'Product Display' page (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>Validate the original price of the Product without offer in the Product Display page</t>
+  </si>
+  <si>
+    <t>TC_PDP_032</t>
+  </si>
+  <si>
+    <t>Need Automation</t>
+  </si>
+  <si>
+    <t>1. Correct rewards points should be displayed</t>
+  </si>
+  <si>
+    <t>1. Enter any existing Product name into the Search text box field  - &lt;Refer Test Data&gt;
+2. Click on the button having search icon
+3. Click on the Product displayed in the Search results
+4. Check the 'Reward Points' in the displayed 'Product Display' page (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>Validate the Reward Points displayed in the Product Display page</t>
+  </si>
+  <si>
+    <t>TC_PDP_031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. User should be taken to the Product Display page of the Product </t>
+  </si>
+  <si>
+    <t>1. Enter any existing Product name into the Search text box field - &lt;Refer Test Data&gt;
+2. Click on the button having search icon
+3. Click on 'Add to Cart' option on the product that is displayed in the Search Results 
+4. Click on 'Cart' button which is in black color beside the search icon button on the top of the page
+5. Click on the Product Name link in the displayed toggle box (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>Validate navigating to the Product Display page by using the Product Name link in the 'Cart' button toggle box</t>
+  </si>
+  <si>
+    <t>TC_PDP_030</t>
+  </si>
+  <si>
+    <t>1. Enter any existing Product name into the Search text box field - &lt;Refer Test Data&gt;
+2. Click on the button having search icon
+3. Click on 'Add to Cart' option on the product that is displayed in the Search Results 
+4. Click on 'Cart' button which is in black color beside the search icon button on the top of the page
+5. Click on the Product Image in the displayed toggle box (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>Validate navigating to the Product Display page by using the Product Image in the 'Cart' button toggle box</t>
+  </si>
+  <si>
+    <t>TC_PDP_029</t>
+  </si>
+  <si>
+    <t>1. Enter any existing Product name into the Search text box field  - &lt;Refer Test Data&gt;
+2. Click on the button having search icon
+3. Click on the Product displayed in the Search results
+4. Click on 'Add to Cart' button
+5. Click on 'Checkout' button in the displayed 'Shopping Cart' page
+6. Click on 'Continue' buttons and select any mandatory checkboxes until you reach the 'Confirm Order' section 
+7. Click on 'Product Name' link in the 'Confirm Order' section (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>Validate navigating to the Product Display page by using the Product Name link in the 'Confirm Order' sectioon of the 'Checkout' page</t>
+  </si>
+  <si>
+    <t>TC_PDP_028</t>
+  </si>
+  <si>
+    <t>1. Enter any existing Product name into the Search text box field  - &lt;Refer Test Data&gt;
+2. Click on the button having search icon
+3. Click on the Product displayed in the Search results
+4. Click on 'Add to Cart' button
+5. Click on 'shopping cart!' link from the displayed success page
+6. Click on the Product Name link from the displayed Shopping Cart page (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>Validate navigating to the Product Display page by using the Product Name link in the 'Shopping Cart' page</t>
+  </si>
+  <si>
+    <t>TC_PDP_027</t>
+  </si>
+  <si>
+    <t>1. Enter any existing Product name into the Search text box field  - &lt;Refer Test Data&gt;
+2. Click on the button having search icon
+3. Click on the Product displayed in the Search results
+4. Click on 'Add to Cart' button
+5. Click on 'shopping cart!' link from the displayed success page
+6. Click on the Product image from the displayed Shopping Cart page (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>Validate navigating to the Product Display page by using the Product Image in the 'Shopping Cart' page</t>
+  </si>
+  <si>
+    <t>TC_PDP_026</t>
+  </si>
+  <si>
+    <t>1. Enter any existing Product name into the Search text box field  - &lt;Refer Test Data&gt;
+2. Click on the button having search icon
+3. Click on the Product displayed in the Search results
+4. Click on 'Add to Cart' button
+5. Click on 'Product Name' link from the displayed success page</t>
+  </si>
+  <si>
+    <t>Validate navigating to the Product Display page by using the Product Name link in Success message on adding the Product to Cart</t>
+  </si>
+  <si>
+    <t>TC_PDP_025</t>
+  </si>
+  <si>
+    <t>1. User should be taken to the Product Display page of the Product that is displayed in the 'Wish List' page</t>
+  </si>
+  <si>
+    <t>1. Click on the 'Wish List' header option
+2. Click on the Product Name link displayed under the 'Product Name' section of the displayed 'Wish List' page (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>1. Open the Application URL and Login
+2.A product is added to the Wish List page</t>
+  </si>
+  <si>
+    <t>Validate navigating to the Product Display page by using the Product Name link in the 'Wish List' page</t>
+  </si>
+  <si>
+    <t>TC_PDP_024</t>
+  </si>
+  <si>
+    <t>1. User should be taken the Product Display page of the Product that is displayed in the 'Wish List' page</t>
+  </si>
+  <si>
+    <t>1. Click on the 'Wish List' header option
+2. Click on the Image icon displayed under the 'Image' section of the displayed 'Wish List' page (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>Validate navigating to the Product Display page by using the Product image in the 'Wish List' page</t>
+  </si>
+  <si>
+    <t>TC_PDP_023</t>
+  </si>
+  <si>
+    <t>1. User should see the Product displayed in the 'Related Products' section and is able ot click it and navigate to the Product Display Page of it.</t>
+  </si>
+  <si>
+    <t>1. Enter any existing Product name into the Search text box field  - &lt;Refer Test Data&gt;
+2. Click on the button having search icon
+3. Click on the Product displayed in the Search results
+4. Click on the 'Related Products' section in the displayed Product Display Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open the Application URL </t>
+  </si>
+  <si>
+    <t>Validate 'Related Products' section in Product Display page</t>
+  </si>
+  <si>
+    <t>TC_PDP_022</t>
+  </si>
+  <si>
+    <t>1. User should be able to like, tweet, share the Product Display page on social platforms</t>
+  </si>
+  <si>
+    <t>1. Enter any existing Product name into the Search text box field  - &lt;Refer Test Data&gt;
+2. Click on the button having search icon
+3. Click on the Product displayed in the Search results
+4. Check the options for liking, tweeting, sharing the Product Display page on social platforms (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>Validate proper options for liking, tweeting, sharing the Product Display page on social platforms</t>
+  </si>
+  <si>
+    <t>TC_PDP_021</t>
+  </si>
+  <si>
+    <t>Automation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Success message with text - ' Success: You have added Product Name to your product comparison!' is displayed
+2. User should be taken to 'Product Comparison' page and the product details are displayed in the page
+</t>
+  </si>
+  <si>
+    <t>1. Enter any existing Product name into the Search text box field  - &lt;Refer Test Data&gt;
+2. Click on the button having search icon
+3. Click on the Product displayed in the Search results
+4. Click on 'Compare this Product' option in the displayed 'Product Display' page (Validate ER-1)
+5. Click on 'product comparisoin' link in the success message (Validate ER-2)</t>
+  </si>
+  <si>
+    <t>Validate adding the product for comparision from the Product Display page</t>
+  </si>
+  <si>
+    <t>TC_PDP_020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. User should be taken to 'Wish List page and the product added is displayed in the 'Wish List' page
+</t>
+  </si>
+  <si>
+    <t>1. Enter any existing Product name into the Search text box field  - &lt;Refer Test Data&gt;
+2. Click on the button having search icon
+3. Click on the Product displayed in the Search results
+4. Click on 'Add to Wish List' option in the displayed 'Product Display' page (Validate ER-1)
+5. Click on 'wish list' link in the success message (Validate ER-2)</t>
+  </si>
+  <si>
+    <t>1. Open the Application URL and Login</t>
+  </si>
+  <si>
+    <t>Validate adding the product to 'Wish List' from the Product Display page</t>
+  </si>
+  <si>
+    <t>TC_PDP_019</t>
+  </si>
+  <si>
+    <t>1. Success message with text - 'Success: You have added Product Name to your wish list!' is displayed</t>
+  </si>
+  <si>
+    <t>1. Enter any existing Product name into the Search text box field  - &lt;Refer Test Data&gt;
+2. Click on the button having search icon
+3. Click on the Product displayed in the Search results
+4. Click on 'Add to Wish List' option in the displayed 'Product Display' page (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>1. Proper warning message with the text - 'Warning: Review Text must be between 25 and 1000 characters!' should be displayed</t>
+  </si>
+  <si>
+    <t>1. Enter any existing Product name into the Search text box field  - &lt;Refer Test Data&gt;
+2. Click on the button having search icon
+3. Click on the Product displayed in the Search results
+4. Select the Reviews tab of the Product in the displayed 'Product Display' page 
+5. Provide Name and Ratings
+6. Check whether a proper warning message is displayed on providing the review text which is not according to the specified range of characters (i.e. 25 to 100 charactres) and click on 'Continue' button (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>Validate the review text given while writing is accepted according to the specified number of characters</t>
+  </si>
+  <si>
+    <t>TC_PDP_018</t>
+  </si>
+  <si>
+    <t>1. Proper warning messages informing the User to fill the mandatory fields to submit the review should be displayed.</t>
+  </si>
+  <si>
+    <t>1. Enter any existing Product name into the Search text box field  - &lt;Refer Test Data&gt;
+2. Click on the button having search icon
+3. Click on the Product displayed in the Search results
+4. Select the Reviews tab of the Product in the displayed 'Product Display' page 
+5. Don't provide Name, Your Review and Ratings and click on 'Continue' button (Validate ER-1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate submitting a review without filling the mandatory fields </t>
+  </si>
+  <si>
+    <t>TC_PDP_017</t>
+  </si>
+  <si>
+    <t>1. Reviews given the User so far should be displayed under the 'Reviews' tab of the Product Display Page.</t>
+  </si>
+  <si>
+    <t>1. Enter any existing Product name into the Search text box field  - &lt;Refer Test Data&gt;
+2. Click on the button having search icon
+3. Click on the Product displayed in the Search results
+4. Click on the 'x reviews' link in the Product Display page (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>Validate 'reviews' link under the 'Add to Cart' button of Product Display Page</t>
+  </si>
+  <si>
+    <t>TC_PDP_016</t>
+  </si>
+  <si>
+    <t>1. Correct count of reviews should be displayed in the 'Reviews' tab label of the Product Display Page</t>
+  </si>
+  <si>
+    <t>1. Enter any existing Product name into the Search text box field  - &lt;Refer Test Data&gt;
+2. Click on the button having search icon
+3. Click on the Product displayed in the Search results
+4. Check the count of reviews in the 'Reviews' tab lable in the Product Display page (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>Validate the count of reviews should be displayed in the 'Reviews' tab label of the Product Display page</t>
+  </si>
+  <si>
+    <t>TC_PDP_015</t>
+  </si>
+  <si>
+    <t>1. Correct average review and the number of reviews count should be displayed under the 'Add to Cart' button</t>
+  </si>
+  <si>
+    <t>1. Enter any existing Product name into the Search text box field  - &lt;Refer Test Data&gt;
+2. Click on the button having search icon
+3. Click on the Product displayed in the Search results
+4. Check the average and number of reviews under the 'Add to Cart' page (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>Validate average of the user reviews should be dispalyed under the 'Add to Cart' button of the Product Display page</t>
+  </si>
+  <si>
+    <t>TC_PDP_014</t>
+  </si>
+  <si>
+    <t>1. 'Reviews' tab in the Product Display page should come to the focus.</t>
+  </si>
+  <si>
+    <t>1. Enter any existing Product name into the Search text box field  - &lt;Refer Test Data&gt;
+2. Click on the button having search icon
+3. Click on the Product displayed in the Search results
+4. Click on 'Write a review' link under 'Add to Cart' button of the 'Product Display' page (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>Validate 'Write a review' link under 'Add to Cart' button on the 'Product Display' page</t>
+  </si>
+  <si>
+    <t>TC_PDP_013</t>
+  </si>
+  <si>
+    <t>1. All the fields in the Reviews tab should be mandatory fields.</t>
+  </si>
+  <si>
+    <t>1. Enter any existing Product name into the Search text box field  - &lt;Refer Test Data&gt;
+2. Click on the button having search icon
+3. Click on the Product displayed in the Search results
+4. Click on the Reviews tab of the Product in the displayed 'Product Display' page (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>Validate all the fields in the 'Review' tab are mandatory fields</t>
+  </si>
+  <si>
+    <t>TC_PDP_012</t>
+  </si>
+  <si>
+    <t>1. 'There are no reviews for this product.' text should be displayed under the 'Reviews' tab</t>
+  </si>
+  <si>
+    <t>1. Enter any existing Product name into the Search text box field for which there are no existing reviews - &lt;Refer Test Data&gt;
+2. Click on the button having search icon
+3. Click on the Product displayed in the Search results
+4. Click on the Reviews(0) tab of the Product in the displayed 'Product Display' page (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>Validate the 'Reviews' tab when there are no reviews or zero reviews added</t>
+  </si>
+  <si>
+    <t>TC_PDP_011</t>
+  </si>
+  <si>
+    <t>1. Success message with text - 'Thank you for your review. It has been submitted to the webmaster for approval.' should be displayed. This review should be displayed under this 'Reviews' tab once the webmaster approves it.</t>
+  </si>
+  <si>
+    <t>1. Enter any existing Product name into the Search text box field - &lt;Refer Test Data&gt;
+2. Click on the button having search icon
+3. Click on the Product displayed in the Search results
+4. Click on the Reviews tab of the Product in the displayed 'Product Display' page
+5. Enter your name into the 'Your Name' text field
+6. Enter review text into the 'Your Review' text are field
+7. Select any radio button to give the rating
+8. Click on 'Continue' button (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>Validate the User is able to write a review for the Product from the 'Reviews' tab of Product Display Page</t>
+  </si>
+  <si>
+    <t>TC_PDP_010</t>
+  </si>
+  <si>
+    <t>1. Correct Specifications of the product without any spelling or grammatrical mistakes should be displayed for different types of Products.</t>
+  </si>
+  <si>
+    <t>1. Enter any existing Product name into the Search text box field - &lt;Refer Test Data&gt;
+2. Click on the button having search icon
+3. Click on the Product displayed in the Search results
+4. Click on the Specification tab of the Product in the displayed 'Product Display' page (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>Validate the specifications of the Product in the Product Display Page</t>
+  </si>
+  <si>
+    <t>TC_PDP_009</t>
+  </si>
+  <si>
+    <t>1. Correct Description of the product without any spelling or grammatical mistakes should be displayed for different types of Products.</t>
+  </si>
+  <si>
+    <t>1. Enter any existing Product name into the Search text box field - &lt;Refer Test Data&gt;
+2. Click on the button having search icon
+3. Click on the Product displayed in the Search results
+4. Click on the Description tab of the Product in the displayed 'Product Display' page (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>Validate the description of the Product in the Product Display Page</t>
+  </si>
+  <si>
+    <t>TC_PDP_008</t>
+  </si>
+  <si>
+    <t>1. Product should be added to the cart with the given quantity without any problems.</t>
+  </si>
+  <si>
+    <t>1. Enter any existing Product name into the Search text box field, which has no minimum quanitity set - &lt;Refer Test Data&gt;
+2. Click on the button having search icon
+3. Click on the Product displayed in the Search results
+4. Check the Qty text field in the Product Display Page (Validate ER-1)
+5. Fill all the mandatory fields in the Product Display Page of this product and click on 'Add to Cart' button and navigate to shopping cart page (Validate ER-2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate the Product having the minimum quanitity set </t>
+  </si>
+  <si>
+    <t>TC_PDP_007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Default quantity in Qty field should be displayed as minimum quanity set for this product (This product has minimum quanity set as 2). Also, the information text - ' This product has a minimum quantity of 2' should be displayed under the 'Add to Cart' button 
+</t>
+  </si>
+  <si>
+    <t>1. Enter any existing Product name into the Search text box field, which has no minimum quanitity set - &lt;Refer Test Data&gt;
+2. Click on the button having search icon
+3. Click on the Product displayed in the Search results
+4. Check the Qty text field in the Product Display Page (Validate ER-1)
+5. Check Minimum Quantity Text</t>
+  </si>
+  <si>
+    <t>1. A field level message - 'Quantity should be a positive number' or 'Quantity cannot be zero, null or negative' should be displayed under the Qty text field</t>
+  </si>
+  <si>
+    <t>1. Enter any existing Product name into the Search text box field, which has no minimum quanitity set - &lt;Refer Test Data&gt;
+2. Click on the button having search icon
+3. Click on the Product displayed in the Search results
+4. Check the Qty text field in the Product Display Page
+5. Update the quantity in the Qty text feild by providing a negative number or zero number or null quanitity and click on 'Add to Cart' button  (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>Validate the negative quantity or zero quantity or null quantity should not be allowed in the Product Display Page</t>
+  </si>
+  <si>
+    <t>TC_PDP_006</t>
+  </si>
+  <si>
+    <t>1. Quantity should get updated accordingly and the User should be able to add the Product to cart without any issues.</t>
+  </si>
+  <si>
+    <t>1. Enter any existing Product name into the Search text box field, which has no minimum quanitity set - &lt;Refer Test Data&gt;
+2. Click on the button having search icon
+3. Click on the Product displayed in the Search results
+4. Update the quantity by increasing it to more than one and click on 'Add to Cart' button (Validate ER-2)</t>
+  </si>
+  <si>
+    <t>Validate the default quanity for the Product is displayed as 1 in the Product Display Page, when there is no minimum quantity set for the Product</t>
+  </si>
+  <si>
+    <t>TC_PDP_005</t>
+  </si>
+  <si>
+    <t>1. Default quantity should be displayed 1 for this product which has not minimum quantity set</t>
+  </si>
+  <si>
+    <t>1. Enter any existing Product name into the Search text box field, which has no minimum quanitity set - &lt;Refer Test Data&gt;
+2. Click on the button having search icon
+3. Click on the Product displayed in the Search results
+4. Check the Qty text field in the Product Display Page (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>1. Proper price with and without tax should be displayed for the different types of Products in the Product Display Page.</t>
+  </si>
+  <si>
+    <t>1. Enter any existing Product name into the Search text box field - &lt;Refer Test Data&gt;
+2. Click on the button having search icon
+3. Click on the Product displayed in the Search results
+4. Check the Price with tax and Price Ex Tax in the displayed Product Display Page (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>Validate the Price of the Product with and without tax is displayed in the Product Display Page</t>
+  </si>
+  <si>
+    <t>TC_PDP_004</t>
+  </si>
+  <si>
+    <t>1. Proper avaialabilty statuses like In Stock, Out of Stock and Limited Stock should be displayed in the Availabilty section of the Product Display Page for the different types of Products.</t>
+  </si>
+  <si>
+    <t>1. Enter any existing Product name into the Search text box field - &lt;Refer Test Data&gt;
+2. Click on the button having search icon
+3. Click on the Product displayed in the Search results
+4. Check the different availability status of the Products in the displayed Product Display Page</t>
+  </si>
+  <si>
+    <t>Validate the availabilty status of the Product in the Product Display Page</t>
+  </si>
+  <si>
+    <t>TC_PDP_003</t>
+  </si>
+  <si>
+    <t>1. Proper Product Name, Brand and Product Code should be displayed for the different types of Products in the Product Display Page.</t>
+  </si>
+  <si>
+    <t>1. Enter any existing Product name into the Search text box field - &lt;Refer Test Data&gt;
+2. Click on the button having search icon
+3. Click on the Product displayed in the Search results
+4. Check the Product Name, Brand and Product Code in the displayed Product Display Page</t>
+  </si>
+  <si>
+    <t>Validate that Product Name, Brand and Product Code are displayed in the Product Display Page</t>
+  </si>
+  <si>
+    <t>TC_PDP_002</t>
+  </si>
+  <si>
+    <t>1. Light box view of the main Thumnail image should be displayed with options to view the previous and next Thumnail images in Light box view.
+2. User should be able to navigate to other thumbnail images in the Light box view 
+3. Light box view should close and the focus should go to the Product Display Page.
+4 Light box view of the selected Thumnail image should be displayed with options to view the previous and next Thumnail images in Light box view.  User should be able to navigate to other thumbnail images in the Light box view. Light box view should close and the focus should go to the Product Display Page.</t>
+  </si>
+  <si>
+    <t>1. Enter any existing Product name into the Search text box field - &lt;Refer Test Data&gt;
+2. Click on the button having search icon
+3. Click on the Product displayed in the Search results
+4. Click on the main bigger sized Thumbnail image displayed on the 'Product Display Page' (Validate ER-1)
+5. Click on '&lt;' and '&gt;' options (Validate ER-2)
+6. Click on 'x' option or press 'ESC' keyboard key when the thumbnails are displayed in Light box view (Validate ER-3)
+7. Click on the normal sized Thumbnail images and repeat the steps 5 to 6 (Validate ER-4)</t>
+  </si>
+  <si>
+    <t>Validate the Thumbnails of the Product displayed in the Product Display Page</t>
+  </si>
+  <si>
+    <t>TC_PDP_001</t>
+  </si>
+  <si>
+    <t>TC_PDP_038</t>
+  </si>
+  <si>
+    <t>TC_PDP_039</t>
+  </si>
+  <si>
+    <t>TC_PDP_040</t>
   </si>
 </sst>
 </file>
@@ -1321,7 +1950,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1337,6 +1966,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1396,7 +2031,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1446,6 +2081,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1730,7 +2369,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -2310,7 +2949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE1D9543-8464-4E0F-BC28-34902DCECC11}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView topLeftCell="E14" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -3227,7 +3866,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{950A7B87-2D5F-4CC5-B12F-3D902C025A90}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E15" workbookViewId="0">
+    <sheetView topLeftCell="E15" workbookViewId="0">
       <selection activeCell="H17" sqref="H17:H24"/>
     </sheetView>
   </sheetViews>
@@ -3897,4 +4536,1141 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE66A159-E6EB-4E1B-AC49-246BFB5DDB4A}">
+  <dimension ref="A1:I41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="28.88671875" style="21" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" style="21" customWidth="1"/>
+    <col min="5" max="5" width="50.33203125" style="21" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" style="21" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" style="21" customWidth="1"/>
+    <col min="8" max="8" width="29.44140625" style="21" customWidth="1"/>
+    <col min="9" max="9" width="13" style="21" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="201.6" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
+        <v>475</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>474</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>473</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>472</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" s="18"/>
+    </row>
+    <row r="3" spans="1:9" ht="88.2" x14ac:dyDescent="0.2">
+      <c r="A3" s="18" t="s">
+        <v>471</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>470</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>469</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>468</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="I3" s="16"/>
+    </row>
+    <row r="4" spans="1:9" ht="88.2" x14ac:dyDescent="0.2">
+      <c r="A4" s="18" t="s">
+        <v>467</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>466</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>465</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>464</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="I4" s="16"/>
+    </row>
+    <row r="5" spans="1:9" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
+        <v>463</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>462</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>461</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>460</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="I5" s="16"/>
+    </row>
+    <row r="6" spans="1:9" ht="100.8" x14ac:dyDescent="0.2">
+      <c r="A6" s="18" t="s">
+        <v>457</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>456</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>459</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>458</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="I6" s="16"/>
+    </row>
+    <row r="7" spans="1:9" ht="113.4" x14ac:dyDescent="0.2">
+      <c r="A7" s="18" t="s">
+        <v>453</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>456</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>455</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>454</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="I7" s="16"/>
+    </row>
+    <row r="8" spans="1:9" ht="151.19999999999999" x14ac:dyDescent="0.2">
+      <c r="A8" s="18" t="s">
+        <v>447</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>451</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>450</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="I8" s="16"/>
+    </row>
+    <row r="9" spans="1:9" ht="113.4" x14ac:dyDescent="0.2">
+      <c r="A9" s="18" t="s">
+        <v>443</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="I9" s="16"/>
+    </row>
+    <row r="10" spans="1:9" ht="151.19999999999999" x14ac:dyDescent="0.2">
+      <c r="A10" s="18" t="s">
+        <v>439</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>445</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>444</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="I10" s="16"/>
+    </row>
+    <row r="11" spans="1:9" ht="100.8" x14ac:dyDescent="0.2">
+      <c r="A11" s="18" t="s">
+        <v>435</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>442</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>441</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>440</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="I11" s="16"/>
+    </row>
+    <row r="12" spans="1:9" ht="100.8" x14ac:dyDescent="0.2">
+      <c r="A12" s="18" t="s">
+        <v>431</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>438</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>437</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>436</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="I12" s="16"/>
+    </row>
+    <row r="13" spans="1:9" ht="151.19999999999999" x14ac:dyDescent="0.2">
+      <c r="A13" s="18" t="s">
+        <v>427</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>434</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>433</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>432</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="I13" s="16"/>
+    </row>
+    <row r="14" spans="1:9" ht="113.4" x14ac:dyDescent="0.2">
+      <c r="A14" s="18" t="s">
+        <v>423</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>430</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>429</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>428</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="I14" s="16"/>
+    </row>
+    <row r="15" spans="1:9" ht="88.2" x14ac:dyDescent="0.2">
+      <c r="A15" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>426</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>425</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>424</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="I15" s="16"/>
+    </row>
+    <row r="16" spans="1:9" ht="100.8" x14ac:dyDescent="0.2">
+      <c r="A16" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>422</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>421</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>420</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="I16" s="16"/>
+    </row>
+    <row r="17" spans="1:9" ht="88.2" x14ac:dyDescent="0.2">
+      <c r="A17" s="18" t="s">
+        <v>411</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>418</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>417</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>416</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="I17" s="16"/>
+    </row>
+    <row r="18" spans="1:9" ht="88.2" x14ac:dyDescent="0.2">
+      <c r="A18" s="18" t="s">
+        <v>407</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>414</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>413</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>412</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="I18" s="16"/>
+    </row>
+    <row r="19" spans="1:9" ht="88.2" x14ac:dyDescent="0.2">
+      <c r="A19" s="18" t="s">
+        <v>403</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="I19" s="16"/>
+    </row>
+    <row r="20" spans="1:9" ht="113.4" x14ac:dyDescent="0.2">
+      <c r="A20" s="18" t="s">
+        <v>397</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>406</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>404</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="I20" s="16"/>
+    </row>
+    <row r="21" spans="1:9" ht="163.80000000000001" x14ac:dyDescent="0.2">
+      <c r="A21" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>401</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="I21" s="16"/>
+    </row>
+    <row r="22" spans="1:9" ht="88.2" x14ac:dyDescent="0.2">
+      <c r="A22" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>396</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>395</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>399</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>398</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="I22" s="16"/>
+    </row>
+    <row r="23" spans="1:9" ht="113.4" x14ac:dyDescent="0.2">
+      <c r="A23" s="18" t="s">
+        <v>383</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>396</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>395</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="H23" s="21" t="s">
+        <v>388</v>
+      </c>
+      <c r="I23" s="16"/>
+    </row>
+    <row r="24" spans="1:9" ht="113.4" x14ac:dyDescent="0.2">
+      <c r="A24" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>381</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>389</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="I24" s="16"/>
+    </row>
+    <row r="25" spans="1:9" ht="100.8" x14ac:dyDescent="0.2">
+      <c r="A25" s="18" t="s">
+        <v>374</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>385</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>384</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="I25" s="16"/>
+    </row>
+    <row r="26" spans="1:9" ht="88.2" x14ac:dyDescent="0.2">
+      <c r="A26" s="18" t="s">
+        <v>369</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>381</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>380</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>379</v>
+      </c>
+      <c r="H26" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="I26" s="16"/>
+    </row>
+    <row r="27" spans="1:9" ht="50.4" x14ac:dyDescent="0.2">
+      <c r="A27" s="18" t="s">
+        <v>366</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>375</v>
+      </c>
+      <c r="H27" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="I27" s="16"/>
+    </row>
+    <row r="28" spans="1:9" ht="50.4" x14ac:dyDescent="0.2">
+      <c r="A28" s="18" t="s">
+        <v>363</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="H28" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="I28" s="16"/>
+    </row>
+    <row r="29" spans="1:9" ht="100.8" x14ac:dyDescent="0.2">
+      <c r="A29" s="18" t="s">
+        <v>360</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>367</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="I29" s="16"/>
+    </row>
+    <row r="30" spans="1:9" ht="126" x14ac:dyDescent="0.2">
+      <c r="A30" s="18" t="s">
+        <v>357</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>365</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="H30" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="I30" s="16"/>
+    </row>
+    <row r="31" spans="1:9" ht="126" x14ac:dyDescent="0.2">
+      <c r="A31" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>361</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="H31" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="I31" s="16"/>
+    </row>
+    <row r="32" spans="1:9" ht="195" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="H32" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="I32" s="16"/>
+    </row>
+    <row r="33" spans="1:9" ht="195" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>356</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>355</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G33" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="H33" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="I33" s="16"/>
+    </row>
+    <row r="34" spans="1:9" ht="195" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>353</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G34" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="H34" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="I34" s="16"/>
+    </row>
+    <row r="35" spans="1:9" ht="88.2" x14ac:dyDescent="0.2">
+      <c r="A35" s="18" t="s">
+        <v>337</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="G35" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="H35" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="I35" s="16"/>
+    </row>
+    <row r="36" spans="1:9" ht="100.8" x14ac:dyDescent="0.2">
+      <c r="A36" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="G36" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="H36" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="I36" s="16"/>
+    </row>
+    <row r="37" spans="1:9" ht="100.8" x14ac:dyDescent="0.2">
+      <c r="A37" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="G37" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="H37" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="I37" s="16"/>
+    </row>
+    <row r="38" spans="1:9" ht="88.2" x14ac:dyDescent="0.2">
+      <c r="A38" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>334</v>
+      </c>
+      <c r="F38" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="G38" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="H38" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="I38" s="16"/>
+    </row>
+    <row r="39" spans="1:9" ht="100.8" x14ac:dyDescent="0.2">
+      <c r="A39" s="18" t="s">
+        <v>476</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>330</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>329</v>
+      </c>
+      <c r="F39" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="G39" s="17" t="s">
+        <v>328</v>
+      </c>
+      <c r="H39" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="I39" s="16"/>
+    </row>
+    <row r="40" spans="1:9" ht="63" x14ac:dyDescent="0.2">
+      <c r="A40" s="18" t="s">
+        <v>477</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>326</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="F40" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="G40" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="H40" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="I40" s="16"/>
+    </row>
+    <row r="41" spans="1:9" ht="63" x14ac:dyDescent="0.2">
+      <c r="A41" s="18" t="s">
+        <v>478</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="F41" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="G41" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="H41" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="I41" s="16"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/testData/OpenCartTestCases.xlsx
+++ b/testData/OpenCartTestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abgoyal\Downloads\Open-Cart-App-Testing\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8658A0B-EA5A-4924-9C67-9D8FF29B3484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC0D626-26C7-490E-ABC9-157ED56DF218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="Product Display Page" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Login!$A$1:$H$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Login!$A$1:$H$23</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Register!$A$1:$I$20</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Search!$A$1:$I$24</definedName>
   </definedNames>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="478">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -1375,9 +1375,6 @@
     <t>TC_PDP_032</t>
   </si>
   <si>
-    <t>Need Automation</t>
-  </si>
-  <si>
     <t>1. Correct rewards points should be displayed</t>
   </si>
   <si>
@@ -1539,9 +1536,6 @@
   </si>
   <si>
     <t>TC_PDP_021</t>
-  </si>
-  <si>
-    <t>Automation</t>
   </si>
   <si>
     <t xml:space="preserve">1. Success message with text - ' Success: You have added Product Name to your product comparison!' is displayed
@@ -1903,6 +1897,9 @@
   </si>
   <si>
     <t>TC_PDP_040</t>
+  </si>
+  <si>
+    <t>Need Automated</t>
   </si>
 </sst>
 </file>
@@ -2369,8 +2366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="D30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2940,6 +2937,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H23" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2949,8 +2947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE1D9543-8464-4E0F-BC28-34902DCECC11}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -4542,8 +4540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE66A159-E6EB-4E1B-AC49-246BFB5DDB4A}">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -4591,25 +4589,25 @@
     </row>
     <row r="2" spans="1:9" ht="201.6" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>323</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>205</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F2" s="19" t="s">
         <v>242</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>99</v>
@@ -4618,160 +4616,160 @@
     </row>
     <row r="3" spans="1:9" ht="88.2" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>323</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>205</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F3" s="19" t="s">
         <v>242</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>388</v>
+        <v>98</v>
       </c>
       <c r="I3" s="16"/>
     </row>
     <row r="4" spans="1:9" ht="88.2" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B4" s="19" t="s">
         <v>323</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>205</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F4" s="19" t="s">
         <v>242</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>388</v>
+        <v>98</v>
       </c>
       <c r="I4" s="16"/>
     </row>
     <row r="5" spans="1:9" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>323</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>205</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F5" s="19" t="s">
         <v>242</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>388</v>
+        <v>98</v>
       </c>
       <c r="I5" s="16"/>
     </row>
     <row r="6" spans="1:9" ht="100.8" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>323</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>205</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F6" s="19" t="s">
         <v>242</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>388</v>
+        <v>98</v>
       </c>
       <c r="I6" s="16"/>
     </row>
     <row r="7" spans="1:9" ht="113.4" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>323</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>205</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F7" s="19" t="s">
         <v>242</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>388</v>
+        <v>98</v>
       </c>
       <c r="I7" s="16"/>
     </row>
     <row r="8" spans="1:9" ht="151.19999999999999" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>323</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>205</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F8" s="19" t="s">
         <v>242</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>99</v>
@@ -4780,52 +4778,52 @@
     </row>
     <row r="9" spans="1:9" ht="113.4" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B9" s="19" t="s">
         <v>323</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>205</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F9" s="19" t="s">
         <v>333</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>388</v>
+        <v>98</v>
       </c>
       <c r="I9" s="16"/>
     </row>
     <row r="10" spans="1:9" ht="151.19999999999999" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B10" s="19" t="s">
         <v>323</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>205</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F10" s="19" t="s">
         <v>333</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H10" s="16" t="s">
         <v>99</v>
@@ -4834,25 +4832,25 @@
     </row>
     <row r="11" spans="1:9" ht="100.8" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>323</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>205</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F11" s="19" t="s">
         <v>242</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H11" s="16" t="s">
         <v>99</v>
@@ -4861,25 +4859,25 @@
     </row>
     <row r="12" spans="1:9" ht="100.8" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B12" s="19" t="s">
         <v>323</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>205</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F12" s="19" t="s">
         <v>333</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H12" s="16" t="s">
         <v>99</v>
@@ -4888,25 +4886,25 @@
     </row>
     <row r="13" spans="1:9" ht="151.19999999999999" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B13" s="19" t="s">
         <v>323</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>205</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F13" s="19" t="s">
         <v>333</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H13" s="16" t="s">
         <v>99</v>
@@ -4915,52 +4913,52 @@
     </row>
     <row r="14" spans="1:9" ht="113.4" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B14" s="19" t="s">
         <v>323</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>205</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F14" s="19" t="s">
         <v>242</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>388</v>
+        <v>98</v>
       </c>
       <c r="I14" s="16"/>
     </row>
     <row r="15" spans="1:9" ht="88.2" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B15" s="19" t="s">
         <v>323</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>205</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F15" s="19" t="s">
         <v>242</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H15" s="16" t="s">
         <v>99</v>
@@ -4969,52 +4967,52 @@
     </row>
     <row r="16" spans="1:9" ht="100.8" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B16" s="19" t="s">
         <v>323</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>205</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F16" s="19" t="s">
         <v>242</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>388</v>
+        <v>98</v>
       </c>
       <c r="I16" s="16"/>
     </row>
     <row r="17" spans="1:9" ht="88.2" x14ac:dyDescent="0.2">
       <c r="A17" s="18" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B17" s="19" t="s">
         <v>323</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>205</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F17" s="19" t="s">
         <v>242</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H17" s="16" t="s">
         <v>99</v>
@@ -5023,25 +5021,25 @@
     </row>
     <row r="18" spans="1:9" ht="88.2" x14ac:dyDescent="0.2">
       <c r="A18" s="18" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B18" s="19" t="s">
         <v>323</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>205</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F18" s="19" t="s">
         <v>242</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H18" s="16" t="s">
         <v>99</v>
@@ -5050,25 +5048,25 @@
     </row>
     <row r="19" spans="1:9" ht="88.2" x14ac:dyDescent="0.2">
       <c r="A19" s="18" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B19" s="19" t="s">
         <v>323</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>205</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F19" s="19" t="s">
         <v>242</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="H19" s="16" t="s">
         <v>99</v>
@@ -5077,25 +5075,25 @@
     </row>
     <row r="20" spans="1:9" ht="113.4" x14ac:dyDescent="0.2">
       <c r="A20" s="18" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B20" s="19" t="s">
         <v>323</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>205</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F20" s="19" t="s">
         <v>242</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="H20" s="16" t="s">
         <v>99</v>
@@ -5104,25 +5102,25 @@
     </row>
     <row r="21" spans="1:9" ht="163.80000000000001" x14ac:dyDescent="0.2">
       <c r="A21" s="18" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B21" s="19" t="s">
         <v>323</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>205</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F21" s="19" t="s">
         <v>242</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H21" s="16" t="s">
         <v>99</v>
@@ -5131,106 +5129,106 @@
     </row>
     <row r="22" spans="1:9" ht="88.2" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B22" s="19" t="s">
         <v>323</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F22" s="19" t="s">
         <v>242</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>388</v>
+        <v>98</v>
       </c>
       <c r="I22" s="16"/>
     </row>
     <row r="23" spans="1:9" ht="113.4" x14ac:dyDescent="0.2">
       <c r="A23" s="18" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B23" s="19" t="s">
         <v>323</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F23" s="19" t="s">
         <v>242</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="H23" s="21" t="s">
-        <v>388</v>
+        <v>98</v>
       </c>
       <c r="I23" s="16"/>
     </row>
     <row r="24" spans="1:9" ht="113.4" x14ac:dyDescent="0.2">
       <c r="A24" s="18" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B24" s="19" t="s">
         <v>323</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F24" s="19" t="s">
         <v>242</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>388</v>
+        <v>98</v>
       </c>
       <c r="I24" s="16"/>
     </row>
     <row r="25" spans="1:9" ht="100.8" x14ac:dyDescent="0.2">
       <c r="A25" s="18" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B25" s="19" t="s">
         <v>323</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D25" s="17" t="s">
         <v>205</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F25" s="19" t="s">
         <v>242</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H25" s="16" t="s">
         <v>99</v>
@@ -5239,25 +5237,25 @@
     </row>
     <row r="26" spans="1:9" ht="88.2" x14ac:dyDescent="0.2">
       <c r="A26" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B26" s="19" t="s">
         <v>323</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F26" s="19" t="s">
         <v>242</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H26" s="16" t="s">
         <v>99</v>
@@ -5266,25 +5264,25 @@
     </row>
     <row r="27" spans="1:9" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A27" s="18" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B27" s="19" t="s">
         <v>323</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F27" s="19" t="s">
         <v>242</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H27" s="16" t="s">
         <v>99</v>
@@ -5293,25 +5291,25 @@
     </row>
     <row r="28" spans="1:9" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A28" s="18" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B28" s="19" t="s">
         <v>323</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F28" s="19" t="s">
         <v>242</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H28" s="16" t="s">
         <v>99</v>
@@ -5320,52 +5318,52 @@
     </row>
     <row r="29" spans="1:9" ht="100.8" x14ac:dyDescent="0.2">
       <c r="A29" s="18" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B29" s="19" t="s">
         <v>323</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D29" s="17" t="s">
         <v>335</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F29" s="19" t="s">
         <v>242</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>346</v>
+        <v>477</v>
       </c>
       <c r="I29" s="16"/>
     </row>
     <row r="30" spans="1:9" ht="126" x14ac:dyDescent="0.2">
       <c r="A30" s="18" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B30" s="19" t="s">
         <v>323</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D30" s="17" t="s">
         <v>335</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F30" s="19" t="s">
         <v>242</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H30" s="16" t="s">
         <v>99</v>
@@ -5374,25 +5372,25 @@
     </row>
     <row r="31" spans="1:9" ht="126" x14ac:dyDescent="0.2">
       <c r="A31" s="18" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B31" s="19" t="s">
         <v>323</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D31" s="17" t="s">
         <v>335</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F31" s="19" t="s">
         <v>242</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H31" s="16" t="s">
         <v>99</v>
@@ -5401,25 +5399,25 @@
     </row>
     <row r="32" spans="1:9" ht="195" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="18" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B32" s="19" t="s">
         <v>323</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D32" s="17" t="s">
         <v>335</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F32" s="19" t="s">
         <v>242</v>
       </c>
       <c r="G32" s="17" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H32" s="16" t="s">
         <v>99</v>
@@ -5434,19 +5432,19 @@
         <v>323</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D33" s="17" t="s">
         <v>335</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F33" s="19" t="s">
         <v>242</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H33" s="16" t="s">
         <v>99</v>
@@ -5461,19 +5459,19 @@
         <v>323</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D34" s="17" t="s">
         <v>335</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F34" s="19" t="s">
         <v>242</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H34" s="16" t="s">
         <v>99</v>
@@ -5488,22 +5486,22 @@
         <v>323</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D35" s="17" t="s">
         <v>335</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F35" s="19" t="s">
         <v>333</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H35" s="16" t="s">
-        <v>346</v>
+        <v>477</v>
       </c>
       <c r="I35" s="16"/>
     </row>
@@ -5590,7 +5588,7 @@
     </row>
     <row r="39" spans="1:9" ht="100.8" x14ac:dyDescent="0.2">
       <c r="A39" s="18" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B39" s="19" t="s">
         <v>323</v>
@@ -5617,7 +5615,7 @@
     </row>
     <row r="40" spans="1:9" ht="63" x14ac:dyDescent="0.2">
       <c r="A40" s="18" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B40" s="19" t="s">
         <v>323</v>
@@ -5644,7 +5642,7 @@
     </row>
     <row r="41" spans="1:9" ht="63" x14ac:dyDescent="0.2">
       <c r="A41" s="18" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B41" s="19" t="s">
         <v>323</v>
